--- a/sheet2.xlsx
+++ b/sheet2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johannesschmid/Desktop/CodeBaking/Python Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81E2628C-397F-FF44-8D58-64864E93BF76}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DC718E4-6134-E642-99E3-B5E7D47DB89B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9640" yWindow="520" windowWidth="28040" windowHeight="16120" xr2:uid="{0E65528D-4654-8147-BC20-CC3780B0CD56}"/>
   </bookViews>
@@ -400,7 +400,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
